--- a/target/classes/com/hubspot/testdata/HubSpotTestData.xlsx
+++ b/target/classes/com/hubspot/testdata/HubSpotTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishagonen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishagonen/eclipse-workspacep/TestNGFramework/src/main/java/com/hubspot/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB625F-1B58-6F41-9577-FEFA459531F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39CD149-BE7C-1D4D-ACA8-2AEB22D840C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="15040" windowHeight="17040" xr2:uid="{F2A5228B-3E1A-004E-AC61-8ED1E233FB81}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="15040" windowHeight="17040" xr2:uid="{F2A5228B-3E1A-004E-AC61-8ED1E233FB81}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>email</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>remzi@gmail.com</t>
+  </si>
+  <si>
+    <t>Shakir</t>
+  </si>
+  <si>
+    <t>kralshakirr@gmail.com</t>
+  </si>
+  <si>
+    <t>Kral</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
 </sst>
 </file>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19E3230-3A8A-1049-9F90-877C248A4987}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.33203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -528,11 +540,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E7A823F9-B5EF-5B46-AB3B-5E0BB65CD2F6}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{DD627821-7994-5247-B9D1-7A39C33305E1}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{86779359-B440-0740-BBC2-6206EAD4677A}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{688650AC-F327-4544-9732-AA260F0F9CD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
